--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_33.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2690950.069034962</v>
+        <v>2795129.703486033</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -656,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>143.3019293755532</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>75.4571321610379</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
@@ -722,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -826,16 +828,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>14.57567088453384</v>
       </c>
       <c r="U4" t="n">
-        <v>87.62154955555303</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -914,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,13 +949,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>7.063910705649791</v>
+        <v>141.6706963305765</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1054,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1066,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>70.82793903800587</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>219.4520895768784</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1133,16 +1135,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1151,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>257.5112080928355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>135.9120781262746</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>79.87853581048157</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>116.7088858552919</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1376,13 +1378,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,13 +1530,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>57.02356321678085</v>
+        <v>148.0536352423269</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1543,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1585,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>49.33106662725117</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1822,13 +1824,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>181.2557668969882</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1853,10 +1855,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>41.33703994143001</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>29.67382008037395</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2065,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2135,7 +2137,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2239,10 +2241,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2251,7 +2253,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2287,13 +2289,13 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>38.05096575280812</v>
       </c>
       <c r="U22" t="n">
-        <v>188.605482870133</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2330,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,10 +2478,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>163.3760574240877</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>105.5683894512305</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2491,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2567,10 +2569,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444125</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881302</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2713,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2731,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>111.551214499872</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2779,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>213.6019919131841</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>116.9323399797397</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>27.77749086859535</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3038,10 +3040,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3199,13 +3201,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>85.71023095289121</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3250,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>29.67382008037395</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3275,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>56.04917322725603</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3439,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3484,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>68.41584059195273</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3560,7 +3562,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3670,7 +3672,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3679,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>2.445727774094548</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3724,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>45.16086499484926</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3788,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3895,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3910,7 +3912,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3952,16 +3954,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>52.57516893522993</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>47.49734780285726</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4144,16 +4146,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>112.5284434523311</v>
       </c>
       <c r="G46" t="n">
-        <v>29.6738200803744</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4198,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1308.370295943748</v>
+        <v>1537.086630593157</v>
       </c>
       <c r="C2" t="n">
-        <v>1308.370295943748</v>
+        <v>1168.124113652745</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4325,10 +4327,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
@@ -4337,7 +4339,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4346,34 +4348,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.50962791956</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943748</v>
+        <v>1681.836054204827</v>
       </c>
     </row>
     <row r="3">
@@ -4383,64 +4385,64 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601596</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064628</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2471.23093222317</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="C4" t="n">
-        <v>2471.23093222317</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="D4" t="n">
-        <v>2471.23093222317</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="E4" t="n">
-        <v>2471.23093222317</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>2471.23093222317</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>2471.23093222317</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H4" t="n">
-        <v>2471.23093222317</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I4" t="n">
-        <v>2471.23093222317</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>2483.05368576061</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
-        <v>2581.36454002828</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>2737.074383950638</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>2904.506865249835</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>3075.815702279683</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>3213.734051497872</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>3312.685054250631</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>3325.605821609171</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S4" t="n">
-        <v>3325.605821609171</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T4" t="n">
-        <v>3103.839206178698</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="U4" t="n">
-        <v>3015.332590466018</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="V4" t="n">
-        <v>2760.648102260131</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="W4" t="n">
-        <v>2471.23093222317</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="X4" t="n">
-        <v>2471.23093222317</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="Y4" t="n">
-        <v>2471.23093222317</v>
+        <v>624.6477645191717</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1944.904841306683</v>
+        <v>1959.379186075721</v>
       </c>
       <c r="C5" t="n">
-        <v>1575.942324366272</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D5" t="n">
-        <v>1575.942324366272</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E5" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3002.202142181448</v>
+        <v>3072.213439671037</v>
       </c>
       <c r="V5" t="n">
-        <v>2671.139254837878</v>
+        <v>3072.213439671037</v>
       </c>
       <c r="W5" t="n">
-        <v>2318.370599567763</v>
+        <v>2719.444784400922</v>
       </c>
       <c r="X5" t="n">
-        <v>1944.904841306683</v>
+        <v>2345.979026139843</v>
       </c>
       <c r="Y5" t="n">
-        <v>1944.904841306683</v>
+        <v>2345.979026139843</v>
       </c>
     </row>
     <row r="6">
@@ -4635,13 +4637,13 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>507.5323442946291</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="C7" t="n">
-        <v>507.5323442946291</v>
+        <v>530.184207459804</v>
       </c>
       <c r="D7" t="n">
-        <v>507.5323442946291</v>
+        <v>530.184207459804</v>
       </c>
       <c r="E7" t="n">
-        <v>359.619250712236</v>
+        <v>382.2711138774109</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143257</v>
+        <v>235.3811663795006</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143257</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4732,43 +4734,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>729.2011216450114</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>729.2011216450114</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U7" t="n">
-        <v>507.5323442946291</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="V7" t="n">
-        <v>507.5323442946291</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="W7" t="n">
-        <v>507.5323442946291</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="X7" t="n">
-        <v>507.5323442946291</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="Y7" t="n">
-        <v>507.5323442946291</v>
+        <v>699.1203903877109</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1572.164517693149</v>
+        <v>1986.901740067215</v>
       </c>
       <c r="C8" t="n">
-        <v>1572.164517693149</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D8" t="n">
-        <v>1213.898819086399</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881544</v>
+        <v>1232.150970528559</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
         <v>3325.60582160917</v>
@@ -4835,19 +4837,19 @@
         <v>3215.315153136265</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410101</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V8" t="n">
-        <v>2701.672345003197</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W8" t="n">
-        <v>2348.903689733083</v>
+        <v>2746.967338392416</v>
       </c>
       <c r="X8" t="n">
-        <v>2348.903689733083</v>
+        <v>2373.501580131337</v>
       </c>
       <c r="Y8" t="n">
-        <v>1958.764357757271</v>
+        <v>2373.501580131337</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811077</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999807</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387296</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.918960533274</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601591</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4911,22 +4913,22 @@
         <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>610.2639694321828</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="C10" t="n">
-        <v>441.3277865042759</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="D10" t="n">
-        <v>441.3277865042759</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="E10" t="n">
-        <v>293.4146929218828</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143256</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962279</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596503</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588479</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886953</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068849</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596435</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757129</v>
+        <v>831.0565485757121</v>
       </c>
       <c r="S10" t="n">
-        <v>831.0565485757129</v>
+        <v>831.0565485757121</v>
       </c>
       <c r="T10" t="n">
-        <v>831.0565485757129</v>
+        <v>713.1687850855183</v>
       </c>
       <c r="U10" t="n">
-        <v>831.0565485757129</v>
+        <v>713.1687850855183</v>
       </c>
       <c r="V10" t="n">
-        <v>831.0565485757129</v>
+        <v>713.1687850855183</v>
       </c>
       <c r="W10" t="n">
-        <v>831.0565485757129</v>
+        <v>713.1687850855183</v>
       </c>
       <c r="X10" t="n">
-        <v>831.0565485757129</v>
+        <v>713.1687850855183</v>
       </c>
       <c r="Y10" t="n">
-        <v>610.2639694321828</v>
+        <v>492.3762059419881</v>
       </c>
     </row>
     <row r="11">
@@ -5018,70 +5020,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>590.9096564684977</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M12" t="n">
-        <v>1188.28814409505</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N12" t="n">
-        <v>1815.886107649656</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.5020655703109</v>
+        <v>950.1865537761984</v>
       </c>
       <c r="C13" t="n">
-        <v>695.5020655703109</v>
+        <v>781.2503708482915</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654818</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>950.1865537761984</v>
       </c>
     </row>
     <row r="14">
@@ -5270,43 +5272,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5425,55 +5427,55 @@
         <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2330.088019603117</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2110.486554626058</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1821.411327970255</v>
       </c>
       <c r="V16" t="n">
-        <v>1505.299220625425</v>
+        <v>1566.726839764368</v>
       </c>
       <c r="W16" t="n">
-        <v>1505.299220625425</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="X16" t="n">
         <v>1277.309669727408</v>
@@ -5492,70 +5494,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452614</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>931.4710609784063</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>762.5348780504994</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D19" t="n">
-        <v>612.4182386381636</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5051450557705</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2167.088989850826</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1878.013763195024</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1623.329274989137</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1333.912104952176</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5741,19 +5743,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,37 +5764,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452613</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718132</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O21" t="n">
         <v>2129.438138565707</v>
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>612.4182386381636</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C22" t="n">
-        <v>612.4182386381636</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D22" t="n">
-        <v>612.4182386381636</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E22" t="n">
-        <v>464.5051450557705</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
         <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5935,25 +5937,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2341.482060890433</v>
       </c>
       <c r="U22" t="n">
-        <v>1786.950491752799</v>
+        <v>2052.406834234631</v>
       </c>
       <c r="V22" t="n">
-        <v>1532.266003546912</v>
+        <v>1797.722346028744</v>
       </c>
       <c r="W22" t="n">
-        <v>1242.848833509951</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X22" t="n">
-        <v>1014.859282611934</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y22" t="n">
-        <v>794.0667034684034</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5969,40 +5971,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>429.5088224239596</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L24" t="n">
-        <v>924.8344286397182</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>1522.21291626627</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1522.21291626627</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2074.122646505557</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2497.745796000625</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>802.9288273958734</v>
+        <v>1055.185257670615</v>
       </c>
       <c r="C25" t="n">
-        <v>637.9025067654818</v>
+        <v>886.2490747427084</v>
       </c>
       <c r="D25" t="n">
-        <v>637.9025067654818</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E25" t="n">
-        <v>489.9894131830887</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U25" t="n">
-        <v>1977.461080510508</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V25" t="n">
-        <v>1722.776592304621</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="W25" t="n">
-        <v>1433.359422267661</v>
+        <v>1685.615852542402</v>
       </c>
       <c r="X25" t="n">
-        <v>1205.369871369643</v>
+        <v>1457.626301644385</v>
       </c>
       <c r="Y25" t="n">
-        <v>984.5772922261132</v>
+        <v>1236.833722500855</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.77365361686</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362673</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6242,22 +6244,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123002</v>
@@ -6269,7 +6271,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L27" t="n">
-        <v>740.5562989961525</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M27" t="n">
         <v>1337.934786622704</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2389.15589967238</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>929.7309773356195</v>
+        <v>3342.53722908186</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>3173.601046153953</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>3023.484406741617</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>2875.571313159224</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>2728.681365661314</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>2561.485266376194</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218392</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>4578.155157954279</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.240688199802</v>
+        <v>4289.079931298477</v>
       </c>
       <c r="V28" t="n">
-        <v>1616.556199993915</v>
+        <v>4034.39544309259</v>
       </c>
       <c r="W28" t="n">
-        <v>1327.139029956954</v>
+        <v>3744.978273055629</v>
       </c>
       <c r="X28" t="n">
-        <v>1327.139029956954</v>
+        <v>3744.978273055629</v>
       </c>
       <c r="Y28" t="n">
-        <v>1111.379442165859</v>
+        <v>3524.185693912099</v>
       </c>
     </row>
     <row r="29">
@@ -6449,34 +6451,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6540,28 +6542,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3110.333886317437</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C31" t="n">
-        <v>2941.39770338953</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D31" t="n">
-        <v>2941.39770338953</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>2793.484609807137</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>2646.594662309226</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>2479.398563024106</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328841</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>4221.331149328841</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>3966.646661122954</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>3677.229491085994</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>3449.239940187977</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y31" t="n">
-        <v>3228.447361044447</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="32">
@@ -6677,70 +6679,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
@@ -6783,19 +6785,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.167399417937</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N33" t="n">
-        <v>1963.765362972544</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O33" t="n">
-        <v>2515.675093211831</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P33" t="n">
-        <v>2515.675093211831</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>931.4710609784063</v>
+        <v>961.4446166151444</v>
       </c>
       <c r="C34" t="n">
-        <v>762.5348780504994</v>
+        <v>792.5084336872375</v>
       </c>
       <c r="D34" t="n">
-        <v>612.4182386381636</v>
+        <v>642.3917942749017</v>
       </c>
       <c r="E34" t="n">
-        <v>464.5051450557705</v>
+        <v>494.4787006925086</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578602</v>
+        <v>347.5887531945982</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>180.3926539094782</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910806</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570814</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279799</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853358</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.91737983266</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487564</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487564</v>
       </c>
       <c r="U34" t="n">
-        <v>1907.987318831765</v>
+        <v>1907.987318831762</v>
       </c>
       <c r="V34" t="n">
-        <v>1653.302830625878</v>
+        <v>1653.302830625875</v>
       </c>
       <c r="W34" t="n">
-        <v>1363.885660588917</v>
+        <v>1363.885660588914</v>
       </c>
       <c r="X34" t="n">
-        <v>1333.912104952176</v>
+        <v>1363.885660588914</v>
       </c>
       <c r="Y34" t="n">
-        <v>1113.119525808646</v>
+        <v>1143.093081445384</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004712</v>
@@ -6923,34 +6925,34 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7014,28 +7016,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>762.547769317909</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1616.556199993915</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1547.449290305074</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1319.459739407057</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y37" t="n">
-        <v>1098.667160263527</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="38">
@@ -7160,34 +7162,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7208,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7260,16 +7262,16 @@
         <v>577.3880777468471</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3195.647281583948</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C40" t="n">
-        <v>3026.711098656041</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D40" t="n">
-        <v>2876.594459243706</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E40" t="n">
-        <v>2728.681365661313</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F40" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>4438.462182210855</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>4149.386955555053</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>3894.702467349166</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>3605.285297312205</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>3377.295746414188</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="Y40" t="n">
-        <v>3377.295746414188</v>
+        <v>1098.667160263526</v>
       </c>
     </row>
     <row r="41">
@@ -7400,28 +7402,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7448,10 +7450,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>904.4616873845483</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M42" t="n">
-        <v>1501.8401750111</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N42" t="n">
-        <v>2129.438138565707</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>931.4710609784063</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C43" t="n">
-        <v>762.5348780504994</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D43" t="n">
-        <v>612.4182386381636</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>464.5051450557705</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
         <v>317.6151975578602</v>
@@ -7600,19 +7602,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1924.354849262801</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1669.670361056914</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W43" t="n">
-        <v>1380.253191019954</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X43" t="n">
-        <v>1152.263640121936</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="Y43" t="n">
-        <v>931.4710609784063</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="44">
@@ -7622,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7655,13 +7657,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7725,28 +7727,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3205.31468543348</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C46" t="n">
-        <v>3036.378502505574</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D46" t="n">
-        <v>2886.261863093238</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E46" t="n">
-        <v>2738.348769510845</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F46" t="n">
-        <v>2591.458822012934</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.9326143059</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>4440.9326143059</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U46" t="n">
-        <v>4151.857387650098</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V46" t="n">
-        <v>3897.172899444211</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W46" t="n">
-        <v>3607.75572940725</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X46" t="n">
-        <v>3607.75572940725</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y46" t="n">
-        <v>3386.96315026372</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
   </sheetData>
@@ -23416,13 +23418,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>91.59190980143151</v>
+        <v>0.5618377758854081</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23473,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>131.6952193743934</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,13 +23712,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>70.88187642683982</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23941,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>187.7316302469143</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,10 +24129,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24175,13 +24177,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>179.3544845744802</v>
       </c>
       <c r="U22" t="n">
-        <v>97.57899151911113</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24364,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>3.870763674540115</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>43.04708356698181</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24379,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24601,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24646,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>105.8542358274163</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.982661438910668</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>62.89964020219759</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>139.4693302300325</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25087,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>54.58448189333265</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25138,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>196.0358353086632</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25312,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>111.1976478713718</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25327,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25372,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>218.1071577446383</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25558,7 +25560,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25600,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>214.9597225531937</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25612,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>180.5487903941879</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25783,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25798,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25840,16 +25842,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>233.6093054540142</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>178.2123075861799</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26032,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>32.89260457060011</v>
       </c>
       <c r="G46" t="n">
-        <v>135.8503182118944</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>761859.2038385635</v>
+        <v>761859.2038385636</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>761859.2038385635</v>
+        <v>761859.2038385634</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>761859.2038385634</v>
+        <v>761859.2038385635</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>761859.2038385634</v>
+        <v>761859.2038385635</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>761859.2038385634</v>
+        <v>761859.2038385636</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>761859.2038385635</v>
+        <v>761859.2038385636</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>761859.2038385635</v>
+        <v>761859.2038385634</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>761859.2038385636</v>
+        <v>761859.2038385635</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>761859.2038385635</v>
+        <v>761859.2038385636</v>
       </c>
     </row>
   </sheetData>
@@ -26311,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380338</v>
+        <v>677359.4601380336</v>
       </c>
       <c r="C2" t="n">
         <v>677359.4601380335</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.460138034</v>
+        <v>677359.4601380338</v>
       </c>
       <c r="E2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.944744255</v>
       </c>
       <c r="F2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.944744255</v>
       </c>
       <c r="G2" t="n">
         <v>665895.944744255</v>
       </c>
       <c r="H2" t="n">
-        <v>665895.9447442552</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="I2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.944744255</v>
       </c>
       <c r="J2" t="n">
         <v>665895.9447442547</v>
       </c>
       <c r="K2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="L2" t="n">
         <v>665895.9447442549</v>
-      </c>
-      <c r="L2" t="n">
-        <v>665895.9447442548</v>
       </c>
       <c r="M2" t="n">
         <v>665895.9447442548</v>
@@ -26353,7 +26355,7 @@
         <v>665895.9447442547</v>
       </c>
       <c r="P2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.944744255</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073559</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.7441040525</v>
+        <v>93596.74410405259</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405256</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.74410405263</v>
       </c>
       <c r="E4" t="n">
         <v>16046.58397189197</v>
@@ -26445,7 +26447,7 @@
         <v>16046.58397189197</v>
       </c>
       <c r="L4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189192</v>
       </c>
       <c r="M4" t="n">
         <v>16046.58397189197</v>
@@ -26519,25 +26521,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-852915.9702550045</v>
+        <v>-852915.9702550048</v>
       </c>
       <c r="C6" t="n">
         <v>475828.7754725877</v>
       </c>
       <c r="D6" t="n">
-        <v>475828.7754725881</v>
+        <v>475828.7754725883</v>
       </c>
       <c r="E6" t="n">
-        <v>223314.3691411005</v>
+        <v>223314.3691411001</v>
       </c>
       <c r="F6" t="n">
-        <v>548726.8309484556</v>
+        <v>548726.830948456</v>
       </c>
       <c r="G6" t="n">
         <v>548726.830948456</v>
       </c>
       <c r="H6" t="n">
-        <v>548726.8309484561</v>
+        <v>548726.8309484557</v>
       </c>
       <c r="I6" t="n">
         <v>548726.830948456</v>
@@ -26546,10 +26548,10 @@
         <v>331195.6285511781</v>
       </c>
       <c r="K6" t="n">
-        <v>548726.8309484558</v>
+        <v>548726.830948456</v>
       </c>
       <c r="L6" t="n">
-        <v>548726.8309484557</v>
+        <v>548726.830948456</v>
       </c>
       <c r="M6" t="n">
         <v>463671.8030129438</v>
@@ -26558,10 +26560,10 @@
         <v>548726.8309484558</v>
       </c>
       <c r="O6" t="n">
-        <v>548726.8309484556</v>
+        <v>548726.8309484557</v>
       </c>
       <c r="P6" t="n">
-        <v>548726.8309484556</v>
+        <v>548726.830948456</v>
       </c>
     </row>
   </sheetData>
@@ -26787,37 +26789,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483761</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>239.4319122879273</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>279.225909459645</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27442,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27546,16 +27548,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>204.9732783916353</v>
       </c>
       <c r="U4" t="n">
-        <v>198.5902886500598</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27634,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,13 +27669,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>243.9312612532522</v>
+        <v>109.3244756283254</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27774,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27786,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>95.19786922102236</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,13 +27824,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>66.75974862873443</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27853,16 +27855,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27904,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>70.24105037729942</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>213.3288905911384</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>65.54251221244968</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,7 +28064,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>102.8400634208773</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -29937,7 +29939,7 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>-3.796617681797508e-12</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H9" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q10" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>583.1096135868572</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>459.3154675919703</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>398.1179220955534</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>583.1096135868572</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32494,7 +32496,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
@@ -32549,22 +32551,22 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>575.5951359912044</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214699</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>195.8560084902135</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33029,34 +33031,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>137.7376326175082</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>268.5330199802459</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,31 +33253,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33284,16 +33286,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33503,34 +33505,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>620.1193660647493</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>177.7456072667729</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>428.7353800421384</v>
       </c>
       <c r="O36" t="n">
-        <v>225.4828684302377</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33892,34 +33894,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>282.8216163968503</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>334.7693860946154</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34141,7 +34143,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460027</v>
@@ -34205,34 +34207,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>467.1465236515248</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>602.8420149078241</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34375,7 +34377,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
         <v>981.2715114159425</v>
@@ -34445,31 +34447,31 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034283</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966696</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567572</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106922</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014211</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648388</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>316.7192231475259</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>259.5635423156792</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648388</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36142,7 +36144,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,22 +36199,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>261.348781916454</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>433.4611020691861</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071396</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075146</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>55.87423440419198</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,25 +36679,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>6.39592053417488</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>128.5512458942243</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,22 +36910,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36932,7 +36934,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,22 +37153,22 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>477.985332142731</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>37.7638331807514</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010414</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="O36" t="n">
-        <v>82.88662398579324</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,19 +37630,19 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>140.6875824748321</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>200.7949786802852</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37789,7 +37791,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37853,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>328.5921438716506</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38023,7 +38025,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
@@ -38093,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2795129.703486033</v>
+        <v>2791117.093472043</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>143.3019293755532</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>24.26938334575254</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -670,16 +670,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -721,10 +721,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -828,16 +828,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>55.67904331004444</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>14.57567088453384</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>78.78083674902116</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,7 +904,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -949,19 +949,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>141.6706963305765</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>72.0880274467727</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1068,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>70.82793903800587</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>235.7835939636772</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>135.9120781262746</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1293,13 +1293,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>116.7088858552919</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>58.28185552386362</v>
       </c>
     </row>
     <row r="11">
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187881</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.0536352423269</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1581,16 +1581,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>90.48716302792852</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1663,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>49.33106662725117</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1824,13 +1824,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>40.96105405076471</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1858,10 +1858,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>41.33703994143001</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>38.05096575280812</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2371,7 +2371,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>105.5683894512305</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>103.1686991936197</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2569,10 +2569,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444125</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881302</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2718,13 +2718,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>43.73846614325537</v>
       </c>
       <c r="T28" t="n">
-        <v>111.551214499872</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2952,10 +2952,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>27.77749086859535</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>85.71023095289121</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>56.04917322725603</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3669,10 +3669,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>79.11532312206231</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>45.16086499484926</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3957,13 +3957,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>47.49734780285726</v>
+        <v>179.2499669408066</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4143,19 +4143,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>112.5284434523311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>54.31367585848692</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1537.086630593157</v>
+        <v>1661.138951213863</v>
       </c>
       <c r="C2" t="n">
-        <v>1168.124113652745</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D2" t="n">
-        <v>809.8584150459947</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E2" t="n">
-        <v>424.0701624477504</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F2" t="n">
-        <v>417.1246616985469</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4348,34 +4348,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X2" t="n">
-        <v>2071.975386180638</v>
+        <v>2051.278283189674</v>
       </c>
       <c r="Y2" t="n">
-        <v>1681.836054204827</v>
+        <v>1661.138951213863</v>
       </c>
     </row>
     <row r="3">
@@ -4385,10 +4385,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
         <v>618.1564155387305</v>
@@ -4397,28 +4397,28 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064628</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
         <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
         <v>1685.951113992584</v>
@@ -4430,13 +4430,13 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
         <v>2242.828302297192</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>624.6477645191717</v>
+        <v>290.4564109463983</v>
       </c>
       <c r="C4" t="n">
-        <v>624.6477645191717</v>
+        <v>290.4564109463983</v>
       </c>
       <c r="D4" t="n">
-        <v>624.6477645191717</v>
+        <v>290.4564109463983</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>290.4564109463983</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962291</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S4" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T4" t="n">
-        <v>624.6477645191717</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U4" t="n">
-        <v>624.6477645191717</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="V4" t="n">
-        <v>624.6477645191717</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="W4" t="n">
-        <v>624.6477645191717</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="X4" t="n">
-        <v>624.6477645191717</v>
+        <v>692.8974549201681</v>
       </c>
       <c r="Y4" t="n">
-        <v>624.6477645191717</v>
+        <v>472.104875776638</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1959.379186075721</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
-        <v>1590.416669135309</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
         <v>1232.150970528558</v>
@@ -4564,31 +4564,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3072.213439671037</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>3072.213439671037</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2719.444784400922</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X5" t="n">
-        <v>2345.979026139843</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="Y5" t="n">
-        <v>2345.979026139843</v>
+        <v>2424.744041450754</v>
       </c>
     </row>
     <row r="6">
@@ -4637,19 +4637,19 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
         <v>765.1517452158134</v>
@@ -4658,10 +4658,10 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>699.1203903877109</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>530.184207459804</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>530.184207459804</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>382.2711138774109</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>235.3811663795006</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4734,43 +4734,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T7" t="n">
-        <v>699.1203903877109</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U7" t="n">
-        <v>699.1203903877109</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V7" t="n">
-        <v>699.1203903877109</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W7" t="n">
-        <v>699.1203903877109</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X7" t="n">
-        <v>699.1203903877109</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y7" t="n">
-        <v>699.1203903877109</v>
+        <v>920.887005818185</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1986.901740067215</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C8" t="n">
-        <v>1617.939223126803</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528559</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389512</v>
+        <v>119.5410613073142</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839476</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136265</v>
+        <v>3087.440575181215</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792694</v>
+        <v>2756.377687837644</v>
       </c>
       <c r="W8" t="n">
-        <v>2746.967338392416</v>
+        <v>2403.60903256753</v>
       </c>
       <c r="X8" t="n">
-        <v>2373.501580131337</v>
+        <v>2030.14327430645</v>
       </c>
       <c r="Y8" t="n">
-        <v>2373.501580131337</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="9">
@@ -4859,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811077</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999807</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387296</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.918960533274</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601591</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4913,22 +4913,22 @@
         <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>310.7277411117484</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>310.7277411117484</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>310.7277411117484</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>310.7277411117484</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962279</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596503</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588479</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886953</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068849</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596435</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181842</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757121</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S10" t="n">
-        <v>831.0565485757121</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T10" t="n">
-        <v>713.1687850855183</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U10" t="n">
-        <v>713.1687850855183</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V10" t="n">
-        <v>713.1687850855183</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W10" t="n">
-        <v>713.1687850855183</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X10" t="n">
-        <v>713.1687850855183</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y10" t="n">
-        <v>492.3762059419881</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168626</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5038,7 +5038,7 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111708</v>
@@ -5053,13 +5053,13 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852256</v>
@@ -5074,19 +5074,19 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>950.1865537761984</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C13" t="n">
-        <v>781.2503708482915</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408905</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578601</v>
@@ -5229,22 +5229,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2105.661370711882</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1816.58614405608</v>
       </c>
       <c r="V13" t="n">
-        <v>1688.385853854707</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="W13" t="n">
-        <v>1398.968683817746</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X13" t="n">
-        <v>1170.979132919728</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y13" t="n">
-        <v>950.1865537761984</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="14">
@@ -5257,16 +5257,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5275,31 +5275,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398594</v>
@@ -5311,7 +5311,7 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5354,31 +5354,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>874.8686257536381</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257312</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797189</v>
@@ -5463,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2330.088019603117</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2110.486554626058</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1821.411327970255</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1566.726839764368</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W16" t="n">
-        <v>1277.309669727408</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X16" t="n">
-        <v>1277.309669727408</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y16" t="n">
-        <v>1056.517090583878</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="17">
@@ -5506,7 +5506,7 @@
         <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797189</v>
@@ -5597,25 +5597,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797189</v>
@@ -5703,22 +5703,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5828,25 +5828,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797189</v>
@@ -5937,25 +5937,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2341.482060890433</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>2052.406834234631</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1797.722346028744</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1508.305175991783</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5986,37 +5986,37 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474784</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1055.185257670615</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>886.2490747427084</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797189</v>
@@ -6171,28 +6171,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1975.033022579363</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1685.615852542402</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1457.626301644385</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>1236.833722500855</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.77365361686</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362673</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797189</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6308,25 +6308,25 @@
         <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>740.5562989961526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1965.532750177311</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2389.15589967238</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3342.53722908186</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C28" t="n">
-        <v>3173.601046153953</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D28" t="n">
-        <v>3023.484406741617</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159224</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661314</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376194</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>4690.833152398594</v>
+        <v>2402.78281474869</v>
       </c>
       <c r="T28" t="n">
-        <v>4578.155157954279</v>
+        <v>2183.181349771631</v>
       </c>
       <c r="U28" t="n">
-        <v>4289.079931298477</v>
+        <v>1894.106123115829</v>
       </c>
       <c r="V28" t="n">
-        <v>4034.39544309259</v>
+        <v>1639.421634909942</v>
       </c>
       <c r="W28" t="n">
-        <v>3744.978273055629</v>
+        <v>1350.004464872981</v>
       </c>
       <c r="X28" t="n">
-        <v>3744.978273055629</v>
+        <v>1122.014913974964</v>
       </c>
       <c r="Y28" t="n">
-        <v>3524.185693912099</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="29">
@@ -6454,7 +6454,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>552.8412329032295</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
@@ -6645,28 +6645,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6688,61 +6688,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>961.4446166151444</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>792.5084336872375</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>642.3917942749017</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>494.4787006925086</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>347.5887531945982</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>180.3926539094782</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782958</v>
@@ -6867,43 +6867,43 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910806</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570814</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279799</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853358</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580257</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.91737983266</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487564</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487564</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1907.987318831762</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1653.302830625875</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1363.885660588914</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1363.885660588914</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>1143.093081445384</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6928,19 +6928,19 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332386</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>762.547769317909</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614391</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.547769317909</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7156,22 +7156,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111701</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1174.766565373399</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N39" t="n">
-        <v>1802.364528928006</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O39" t="n">
-        <v>2354.274259167293</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263526</v>
+        <v>801.6918836311994</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356194</v>
+        <v>632.7557007032925</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232836</v>
+        <v>482.6390612909568</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>1098.667160263526</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y40" t="n">
-        <v>1098.667160263526</v>
+        <v>983.3403484614391</v>
       </c>
     </row>
     <row r="41">
@@ -7399,34 +7399,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>948.5505208511906</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C43" t="n">
-        <v>779.6143379232838</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1350.99156482496</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y43" t="n">
-        <v>1130.19898568143</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="44">
@@ -7636,25 +7636,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>983.3556038098237</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C46" t="n">
-        <v>814.4194208819168</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D46" t="n">
-        <v>664.3027814695811</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E46" t="n">
-        <v>516.389687887188</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2325.055080985707</v>
       </c>
       <c r="T46" t="n">
-        <v>2446.96308358026</v>
+        <v>2105.453616008648</v>
       </c>
       <c r="U46" t="n">
-        <v>2157.887856924458</v>
+        <v>1816.378389352846</v>
       </c>
       <c r="V46" t="n">
-        <v>1903.203368718571</v>
+        <v>1561.693901146959</v>
       </c>
       <c r="W46" t="n">
-        <v>1613.786198681611</v>
+        <v>1272.276731109998</v>
       </c>
       <c r="X46" t="n">
-        <v>1385.796647783593</v>
+        <v>1044.287180211981</v>
       </c>
       <c r="Y46" t="n">
-        <v>1165.004068640063</v>
+        <v>823.4946010684509</v>
       </c>
     </row>
   </sheetData>
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5618377758854081</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23469,16 +23469,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>126.9182872993597</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856552</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>131.6952193743934</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,13 +23712,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>245.5619442858263</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,10 +24177,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>179.3544845744802</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>43.04708356698181</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>62.35543909864913</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24606,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,10 +24651,10 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>137.2878198583892</v>
       </c>
       <c r="T28" t="n">
-        <v>105.8542358274163</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24840,10 +24840,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>139.4693302300325</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>54.58448189333265</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856552</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>111.1976478713718</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856552</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25557,10 +25557,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>67.31863952450686</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>180.5487903941879</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25845,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>178.2123075861799</v>
+        <v>46.45968844823054</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>32.89260457060011</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>126.7126101431577</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>761859.2038385636</v>
+        <v>761859.2038385635</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>761859.2038385634</v>
+        <v>761859.2038385635</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>761859.2038385635</v>
+        <v>761859.2038385634</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>761859.2038385635</v>
+        <v>761859.2038385634</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>761859.2038385636</v>
+        <v>761859.2038385634</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>761859.2038385636</v>
+        <v>761859.2038385635</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>761859.2038385635</v>
+        <v>761859.2038385634</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>761859.2038385635</v>
+        <v>761859.2038385634</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>761859.2038385636</v>
+        <v>761859.2038385634</v>
       </c>
     </row>
   </sheetData>
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>677359.4601380341</v>
+      </c>
+      <c r="C2" t="n">
         <v>677359.4601380336</v>
       </c>
-      <c r="C2" t="n">
-        <v>677359.4601380335</v>
-      </c>
       <c r="D2" t="n">
-        <v>677359.4601380338</v>
+        <v>677359.4601380341</v>
       </c>
       <c r="E2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442552</v>
       </c>
       <c r="F2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442552</v>
       </c>
       <c r="G2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442552</v>
       </c>
       <c r="H2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442552</v>
       </c>
       <c r="I2" t="n">
         <v>665895.944744255</v>
       </c>
       <c r="J2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="K2" t="n">
         <v>665895.944744255</v>
@@ -26346,16 +26346,16 @@
         <v>665895.9447442549</v>
       </c>
       <c r="M2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.944744255</v>
       </c>
       <c r="N2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442552</v>
       </c>
       <c r="O2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.9447442552</v>
       </c>
       <c r="P2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442552</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073559</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.213760608418996e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405259</v>
+        <v>93596.74410405249</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405263</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="E4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189191</v>
       </c>
       <c r="F4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189193</v>
       </c>
       <c r="G4" t="n">
         <v>16046.58397189197</v>
@@ -26438,7 +26438,7 @@
         <v>16046.58397189197</v>
       </c>
       <c r="I4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189192</v>
       </c>
       <c r="J4" t="n">
         <v>16046.58397189197</v>
@@ -26447,7 +26447,7 @@
         <v>16046.58397189197</v>
       </c>
       <c r="L4" t="n">
-        <v>16046.58397189192</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="M4" t="n">
         <v>16046.58397189197</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-852915.9702550048</v>
+        <v>-852915.9702550045</v>
       </c>
       <c r="C6" t="n">
-        <v>475828.7754725877</v>
+        <v>475828.775472588</v>
       </c>
       <c r="D6" t="n">
         <v>475828.7754725883</v>
       </c>
       <c r="E6" t="n">
-        <v>223314.3691411001</v>
+        <v>222966.9898867439</v>
       </c>
       <c r="F6" t="n">
-        <v>548726.830948456</v>
+        <v>548379.4516940992</v>
       </c>
       <c r="G6" t="n">
-        <v>548726.830948456</v>
+        <v>548379.451694099</v>
       </c>
       <c r="H6" t="n">
-        <v>548726.8309484557</v>
+        <v>548379.451694099</v>
       </c>
       <c r="I6" t="n">
-        <v>548726.830948456</v>
+        <v>548379.451694099</v>
       </c>
       <c r="J6" t="n">
-        <v>331195.6285511781</v>
+        <v>330848.2492968214</v>
       </c>
       <c r="K6" t="n">
-        <v>548726.830948456</v>
+        <v>548379.451694099</v>
       </c>
       <c r="L6" t="n">
-        <v>548726.830948456</v>
+        <v>548379.4516940989</v>
       </c>
       <c r="M6" t="n">
-        <v>463671.8030129438</v>
+        <v>463324.4237585872</v>
       </c>
       <c r="N6" t="n">
-        <v>548726.8309484558</v>
+        <v>548379.4516940991</v>
       </c>
       <c r="O6" t="n">
-        <v>548726.8309484557</v>
+        <v>548379.4516940991</v>
       </c>
       <c r="P6" t="n">
-        <v>548726.830948456</v>
+        <v>548379.4516940991</v>
       </c>
     </row>
   </sheetData>
@@ -26709,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>5.267200760523745e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26819,7 +26819,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>5.267200760523745e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483761</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>5.267200760523745e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>239.4319122879273</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>341.003508425255</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27441,10 +27441,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>-9.481304630298837e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27548,16 +27548,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>89.7420047128868</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>204.9732783916353</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>303.9530049144594</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27669,19 +27669,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>109.3244756283254</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>107.7439527351646</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>95.19786922102236</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27827,7 +27827,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -27858,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>15.21157799522473</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>213.3288905911384</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28013,13 +28013,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>102.8400634208773</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>160.3027978282312</v>
       </c>
     </row>
     <row r="11">
@@ -29939,7 +29939,7 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>-3.796617681797508e-12</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,34 +31837,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>583.1096135868572</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742439</v>
@@ -32074,7 +32074,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32092,7 +32092,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>363.5371514786841</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32101,7 +32101,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742439</v>
@@ -32317,28 +32317,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>583.1096135868572</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32548,7 +32548,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32560,16 +32560,16 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>575.5951359912044</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32785,13 +32785,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>175.6052721551105</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473073</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33028,7 +33028,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473073</v>
@@ -33040,16 +33040,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>268.5330199802459</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33259,7 +33259,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>363.5371514786841</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33286,7 +33286,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33496,31 +33496,31 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>620.1193660647493</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33663,7 +33663,7 @@
         <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162548</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
         <v>965.6463440175677</v>
@@ -33733,7 +33733,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33748,10 +33748,10 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>428.7353800421384</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33760,7 +33760,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742439</v>
@@ -33891,10 +33891,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817577</v>
@@ -33970,7 +33970,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33979,25 +33979,25 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>301.1823051500296</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>334.7693860946154</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>602.8420149078241</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M4" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034283</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966696</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567572</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106922</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014211</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>440.9755796648388</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35740,7 +35740,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>220.9409070342396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35749,7 +35749,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35965,28 +35965,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>440.9755796648388</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36208,16 +36208,16 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>433.4611020691861</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>37.76383318075146</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.3288951674331</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.3288951674331</v>
@@ -36688,16 +36688,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>128.5512458942243</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>220.9409070342396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36934,7 +36934,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>477.985332142731</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37235,7 +37235,7 @@
         <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010414</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37311,7 +37311,7 @@
         <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462675</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
         <v>735.300110790295</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37396,10 +37396,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>297.3936679588052</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37408,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37539,10 +37539,10 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
         <v>479.4543240367771</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,25 +37627,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>159.0482712280113</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>200.7949786802852</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>471.5003028244908</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,16 +38101,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2791117.093472043</v>
+        <v>2792877.623774827</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>24.26938334575254</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>340.8795921860818</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -819,22 +819,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>55.67904331004444</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>124.4272108043268</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1189,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>235.7835939636772</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>177.2979137777587</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1378,13 +1378,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722609</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187881</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1539,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>5.421623586788372</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>90.48716302792852</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1590,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187877</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1770,13 +1770,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1824,10 +1824,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>40.96105405076471</v>
+        <v>148.0280580960833</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>11.56087338713367</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>160.1763464053464</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576146</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>4.974488840438739</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2326,7 +2326,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722596</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2414,7 +2414,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2484,19 +2484,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>103.1686991936197</v>
+        <v>20.88994825141584</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881276</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2651,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2721,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S28" t="n">
-        <v>43.73846614325537</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560513</v>
       </c>
     </row>
     <row r="30">
@@ -2888,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T30" t="n">
         <v>188.3046392154443</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,16 +2961,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>167.1115298725979</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3125,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T33" t="n">
         <v>188.3046392154443</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>83.06560892428122</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3362,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T36" t="n">
         <v>188.3046392154443</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428078</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S37" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3517,10 +3517,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3599,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T39" t="n">
         <v>188.3046392154443</v>
@@ -3669,16 +3669,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>79.11532312206231</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>91.89996056624751</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3836,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T42" t="n">
         <v>188.3046392154443</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>9.146142788178919</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>179.2499669408066</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4143,7 +4143,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>54.31367585848692</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>25.52471385612679</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1661.138951213863</v>
+        <v>1664.678443125552</v>
       </c>
       <c r="C2" t="n">
-        <v>1636.624422581789</v>
+        <v>1664.678443125552</v>
       </c>
       <c r="D2" t="n">
-        <v>1278.358723975039</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E2" t="n">
-        <v>892.5704713767946</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4360,22 +4360,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X2" t="n">
-        <v>2051.278283189674</v>
+        <v>2051.278283189673</v>
       </c>
       <c r="Y2" t="n">
-        <v>1661.138951213863</v>
+        <v>2051.278283189673</v>
       </c>
     </row>
     <row r="3">
@@ -4406,31 +4406,31 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>290.4564109463983</v>
+        <v>511.2489900899278</v>
       </c>
       <c r="C4" t="n">
-        <v>290.4564109463983</v>
+        <v>342.3128071620209</v>
       </c>
       <c r="D4" t="n">
-        <v>290.4564109463983</v>
+        <v>192.1961677496852</v>
       </c>
       <c r="E4" t="n">
-        <v>290.4564109463983</v>
+        <v>192.1961677496852</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574645</v>
+        <v>192.1961677496852</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>192.1961677496852</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962291</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K4" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X4" t="n">
-        <v>692.8974549201681</v>
+        <v>692.8974549201675</v>
       </c>
       <c r="Y4" t="n">
-        <v>472.104875776638</v>
+        <v>692.8974549201675</v>
       </c>
     </row>
     <row r="5">
@@ -4567,25 +4567,25 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052369</v>
@@ -4640,19 +4640,19 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4804,16 +4804,16 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060172</v>
@@ -4837,16 +4837,16 @@
         <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3087.440575181215</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2756.377687837644</v>
+        <v>3146.517019813456</v>
       </c>
       <c r="W8" t="n">
-        <v>2403.60903256753</v>
+        <v>2793.748364543341</v>
       </c>
       <c r="X8" t="n">
-        <v>2030.14327430645</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="Y8" t="n">
         <v>2030.14327430645</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168626</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>931.4710609784063</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C13" t="n">
-        <v>762.5348780504994</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D13" t="n">
-        <v>612.4182386381636</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>266.4891497944943</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578601</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2105.661370711882</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U13" t="n">
-        <v>1816.58614405608</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V13" t="n">
-        <v>1561.901655850193</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W13" t="n">
-        <v>1561.901655850193</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X13" t="n">
-        <v>1333.912104952176</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y13" t="n">
-        <v>1113.119525808646</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="14">
@@ -5257,61 +5257,61 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192673</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C16" t="n">
-        <v>847.644273983533</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711973</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1647.011051783227</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X16" t="n">
-        <v>1419.02150088521</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y16" t="n">
-        <v>1198.22892174168</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,52 +5503,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>247.2061440917674</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>105.4943129339655</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="20">
@@ -5743,46 +5743,46 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E23" t="n">
         <v>1204.759558406469</v>
@@ -5980,61 +5980,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="24">
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F25" t="n">
-        <v>198.0274703142544</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6214,25 +6214,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014779</v>
@@ -6244,31 +6244,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>719.5738700011939</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>550.637687073287</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>550.637687073287</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
         <v>402.7245934908938</v>
@@ -6378,58 +6378,58 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2402.78281474869</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>2183.181349771631</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1894.106123115829</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1639.421634909942</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1350.004464872981</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1122.014913974964</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>901.2223348314336</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6451,25 +6451,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6478,34 +6478,34 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273895</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.155464951614</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167372</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.45752234853</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2095.308724111328</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1806.233497455525</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1551.549009249638</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1262.131839212678</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>1034.14228831466</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>813.3497091711303</v>
       </c>
     </row>
     <row r="32">
@@ -6688,34 +6688,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192895</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111743</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075833</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694708</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273899</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.155464951614</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167372</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.45752234853</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797741</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="35">
@@ -6931,28 +6931,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192588</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6964,7 +6964,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.155464951614</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167372</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.45752234853</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270434</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="38">
@@ -7156,46 +7156,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192895</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111743</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075833</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273899</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>740.556298996152</v>
       </c>
       <c r="M39" t="n">
-        <v>1231.938859683104</v>
+        <v>740.556298996152</v>
       </c>
       <c r="N39" t="n">
-        <v>1859.536823237711</v>
+        <v>1368.154262550758</v>
       </c>
       <c r="O39" t="n">
         <v>1859.536823237711</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>801.6918836311994</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C40" t="n">
-        <v>632.7557007032925</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D40" t="n">
-        <v>482.6390612909568</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797741</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614391</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y40" t="n">
-        <v>983.3403484614391</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="41">
@@ -7402,37 +7402,37 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192589</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273899</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.155464951614</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167372</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.45752234853</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>560.7825789706076</v>
+        <v>580.8993044876684</v>
       </c>
       <c r="C43" t="n">
-        <v>391.8463960427007</v>
+        <v>411.9631215597615</v>
       </c>
       <c r="D43" t="n">
-        <v>241.729756630365</v>
+        <v>411.9631215597615</v>
       </c>
       <c r="E43" t="n">
-        <v>93.81666304797187</v>
+        <v>411.9631215597615</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797741</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396416</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>963.2236229443774</v>
+        <v>983.3403484614382</v>
       </c>
       <c r="Y43" t="n">
-        <v>742.4310438008473</v>
+        <v>762.5477693179081</v>
       </c>
     </row>
     <row r="44">
@@ -7636,40 +7636,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>641.8461362382112</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C46" t="n">
-        <v>472.9099533103043</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>322.7933138979686</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>322.7933138979686</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2325.055080985707</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2105.453616008648</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U46" t="n">
-        <v>1816.378389352846</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V46" t="n">
-        <v>1561.693901146959</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W46" t="n">
-        <v>1272.276731109998</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X46" t="n">
-        <v>1044.287180211981</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y46" t="n">
-        <v>823.4946010684509</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
   </sheetData>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>139.9994244361429</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>126.9182872993597</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23658,13 +23658,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23712,10 +23712,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>245.5619442858263</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>69.70496293143188</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>57.22910392194191</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>220.7351665485984</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24372,19 +24372,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>62.35543909864913</v>
+        <v>144.634190040853</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24609,7 +24609,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>137.2878198583892</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24849,16 +24849,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>50.29392045469038</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25083,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>63.36835372228795</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194311</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>67.31863952450686</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>136.2749052347523</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>46.45968844823054</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26031,7 +26031,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,10 +26073,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>126.7126101431577</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>191.8807364711615</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>761859.2038385634</v>
+        <v>761859.2038385635</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>761859.2038385634</v>
+        <v>761859.2038385635</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>761859.2038385635</v>
+        <v>761859.2038385634</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>761859.2038385634</v>
+        <v>761859.2038385635</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>761859.2038385635</v>
+        <v>761859.2038385634</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>761859.2038385635</v>
+        <v>761859.2038385634</v>
       </c>
     </row>
     <row r="15">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380341</v>
+        <v>677359.460138034</v>
       </c>
       <c r="C2" t="n">
         <v>677359.4601380336</v>
@@ -26322,37 +26322,37 @@
         <v>677359.4601380341</v>
       </c>
       <c r="E2" t="n">
-        <v>665895.9447442552</v>
+        <v>665895.944744255</v>
       </c>
       <c r="F2" t="n">
-        <v>665895.9447442552</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="G2" t="n">
-        <v>665895.9447442552</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="H2" t="n">
-        <v>665895.9447442552</v>
+        <v>665895.944744255</v>
       </c>
       <c r="I2" t="n">
         <v>665895.944744255</v>
       </c>
       <c r="J2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="K2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442547</v>
       </c>
       <c r="L2" t="n">
         <v>665895.9447442549</v>
       </c>
       <c r="M2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="N2" t="n">
         <v>665895.944744255</v>
       </c>
-      <c r="N2" t="n">
-        <v>665895.9447442552</v>
-      </c>
       <c r="O2" t="n">
-        <v>665895.9447442552</v>
+        <v>665895.9447442547</v>
       </c>
       <c r="P2" t="n">
         <v>665895.9447442552</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073548</v>
       </c>
       <c r="F3" t="n">
-        <v>4.213760608418996e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551167</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>4.540033842204138e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26417,34 +26417,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405249</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="C4" t="n">
         <v>93596.74410405252</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405249</v>
       </c>
       <c r="E4" t="n">
-        <v>16046.58397189191</v>
+        <v>16046.58397189201</v>
       </c>
       <c r="F4" t="n">
-        <v>16046.58397189193</v>
+        <v>16046.58397189202</v>
       </c>
       <c r="G4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189203</v>
       </c>
       <c r="H4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189204</v>
       </c>
       <c r="I4" t="n">
-        <v>16046.58397189192</v>
+        <v>16046.58397189207</v>
       </c>
       <c r="J4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189202</v>
       </c>
       <c r="K4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189208</v>
       </c>
       <c r="L4" t="n">
         <v>16046.58397189197</v>
@@ -26524,46 +26524,46 @@
         <v>-852915.9702550045</v>
       </c>
       <c r="C6" t="n">
-        <v>475828.775472588</v>
+        <v>475828.7754725878</v>
       </c>
       <c r="D6" t="n">
-        <v>475828.7754725883</v>
+        <v>475828.7754725884</v>
       </c>
       <c r="E6" t="n">
-        <v>222966.9898867439</v>
+        <v>223279.6312156654</v>
       </c>
       <c r="F6" t="n">
-        <v>548379.4516940992</v>
+        <v>548692.0930230201</v>
       </c>
       <c r="G6" t="n">
-        <v>548379.451694099</v>
+        <v>548692.0930230202</v>
       </c>
       <c r="H6" t="n">
-        <v>548379.451694099</v>
+        <v>548692.0930230203</v>
       </c>
       <c r="I6" t="n">
-        <v>548379.451694099</v>
+        <v>548692.0930230203</v>
       </c>
       <c r="J6" t="n">
-        <v>330848.2492968214</v>
+        <v>331160.8906257424</v>
       </c>
       <c r="K6" t="n">
-        <v>548379.451694099</v>
+        <v>548692.0930230198</v>
       </c>
       <c r="L6" t="n">
-        <v>548379.4516940989</v>
+        <v>548692.0930230202</v>
       </c>
       <c r="M6" t="n">
-        <v>463324.4237585872</v>
+        <v>463637.0650875084</v>
       </c>
       <c r="N6" t="n">
-        <v>548379.4516940991</v>
+        <v>548692.0930230203</v>
       </c>
       <c r="O6" t="n">
-        <v>548379.4516940991</v>
+        <v>548692.09302302</v>
       </c>
       <c r="P6" t="n">
-        <v>548379.4516940991</v>
+        <v>548692.09302302</v>
       </c>
     </row>
   </sheetData>
@@ -26709,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5.267200760523745e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26764,19 +26764,19 @@
         <v>1367.975500341674</v>
       </c>
       <c r="K3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="L3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="M3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="N3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="O3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="P3" t="n">
         <v>1367.975500341674</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022929</v>
@@ -26798,22 +26798,22 @@
         <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>5.267200760523745e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697355</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>5.267200760523745e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>341.003508425255</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>13.80344943460113</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>-9.481304630298837e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27539,22 +27539,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>89.7420047128868</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>20.32780410999402</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27909,10 +27909,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>15.21157799522473</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>150.4543446923762</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28098,7 +28098,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28377,7 +28377,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>9.237055564881302e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28620,7 +28620,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28854,7 +28854,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>1.449507180950604e-12</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29046,7 +29046,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>2.216893335571513e-12</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -29331,7 +29331,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29580,7 +29580,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
     </row>
     <row r="30">
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31612,7 +31612,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
         <v>609.6478166837925</v>
@@ -31624,7 +31624,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.015579806724</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,46 +32150,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,46 +32387,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,46 +32624,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,46 +32861,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,46 +33098,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,31 +33253,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558027</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,46 +33335,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067262</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558027</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,46 +33572,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460048</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558027</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,46 +33809,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067262</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M39" t="n">
-        <v>301.1823051500296</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>638.9422653403565</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.5996128485289</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,46 +34046,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043748</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558027</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,46 +34283,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35260,7 +35260,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
         <v>478.3061046004592</v>
@@ -35272,7 +35272,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236318053</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774872</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113583</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236320278</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774872</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113583</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224318</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774872</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113583</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236320278</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774872</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M39" t="n">
-        <v>159.0482712280113</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>496.3460208959121</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625074</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789205</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902427</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774872</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113583</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
